--- a/Benchmarks/Benchmark/BinarySearchVsLinearSearch/AnalyzeStructureOfSequentialGuid.xlsx
+++ b/Benchmarks/Benchmark/BinarySearchVsLinearSearch/AnalyzeStructureOfSequentialGuid.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11028"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonpham/Projects/Pluralsight/AlgorithmsAndDataStructures/AlgorithmsAndDataStructures_Part2.Explaining/AlgorithmsAndDataStructures_Part2.Benchmarks/BinarySearchVsLinearSearch/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1855CE3-CF8D-7A49-BD92-A41EEF29398A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="67">
   <si>
     <r>
       <t>62889494-d396-46ed-</t>
@@ -24,7 +30,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>e3a5-08dbe1c9220b</t>
@@ -135,7 +141,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>20fa-08dbe1be19f5</t>
@@ -153,7 +159,7 @@
         <sz val="11"/>
         <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>20fb-08dbe1be19f5</t>
@@ -180,18 +186,84 @@
   <si>
     <t>f5</t>
   </si>
+  <si>
+    <t>Array with size = 10_000</t>
+  </si>
+  <si>
+    <t>From index 5000, take 10 items</t>
+  </si>
+  <si>
+    <t>[0]: {fef70702-740f-4a8f-dd19-08dbe26c72eb}</t>
+  </si>
+  <si>
+    <t>[1]: {782700eb-dc40-492a-dd55-08dbe26c72eb}</t>
+  </si>
+  <si>
+    <t>[2]: {47f8c564-7f84-469d-dd69-08dbe26c72eb}</t>
+  </si>
+  <si>
+    <t>[3]: {fd28d6c2-0510-4035-dd73-08dbe26c72eb}</t>
+  </si>
+  <si>
+    <t>[4]: {26d5ab9d-e776-46fe-dd7d-08dbe26c72eb}</t>
+  </si>
+  <si>
+    <t>[5]: {85563f2d-26f5-4ec9-dd87-08dbe26c72eb}</t>
+  </si>
+  <si>
+    <t>[6]: {29e41365-24c9-4d42-dd91-08dbe26c72eb}</t>
+  </si>
+  <si>
+    <t>[8]: {dca6bad4-2727-459e-ddaf-08dbe26c72eb}</t>
+  </si>
+  <si>
+    <t>[9]: {63d2d9df-9a14-4cb7-ddb9-08dbe26c72eb}</t>
+  </si>
+  <si>
+    <t>[7]: {0971c60d-5af7-46af-dda5-08dbe26c72eb}</t>
+  </si>
+  <si>
+    <t>From index 9000, take 10 items</t>
+  </si>
+  <si>
+    <t>[0]: {84e41658-657e-460b-aba9-08dbe26c72ec}</t>
+  </si>
+  <si>
+    <t>[1]: {0b3d6659-e28a-42b0-abb3-08dbe26c72ec}</t>
+  </si>
+  <si>
+    <t>[2]: {9b0fe489-8aa2-426c-abbd-08dbe26c72ec}</t>
+  </si>
+  <si>
+    <t>[3]: {538deaf0-f388-487e-abd1-08dbe26c72ec}</t>
+  </si>
+  <si>
+    <t>[4]: {322d51cb-756e-43bd-abdb-08dbe26c72ec}</t>
+  </si>
+  <si>
+    <t>[5]: {b3b3fcb5-5d5c-4f56-abe5-08dbe26c72ec}</t>
+  </si>
+  <si>
+    <t>[6]: {08ee6a0e-67eb-4ca5-abef-08dbe26c72ec}</t>
+  </si>
+  <si>
+    <t>[7]: {a1c0c6a8-34b7-401e-abf9-08dbe26c72ec}</t>
+  </si>
+  <si>
+    <t>[8]: {ce549c12-dd6a-44d0-ac03-08dbe26c72ec}</t>
+  </si>
+  <si>
+    <t>[9]: {050b32f7-3498-4df8-ac17-08dbe26c72ec}</t>
+  </si>
+  <si>
+    <t>The "eb" will place first, and then "ec", so we need to compare from the last item to the first item</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,155 +275,18 @@
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,188 +305,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -559,320 +314,35 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1130,48 +600,48 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:I38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="14.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="6" max="6" width="16.1428571428571" customWidth="1"/>
-    <col min="7" max="7" width="15.2857142857143" customWidth="1"/>
-    <col min="8" max="8" width="12.5714285714286" customWidth="1"/>
-    <col min="9" max="9" width="19.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1191,7 +661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1211,7 +681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1231,7 +701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1251,7 +721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1271,7 +741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1291,7 +761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1311,7 +781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1331,244 +801,244 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>227</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="2">
         <v>16</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="6" t="s">
+      <c r="H11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>165</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="2">
         <v>179</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="3" t="s">
+      <c r="H12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>8</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="2">
         <v>8</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="6" t="s">
+      <c r="H13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>219</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="2">
         <v>219</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="H14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>225</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="2">
         <v>225</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3" t="s">
+      <c r="H15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <v>201</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="2">
         <v>201</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" s="3" t="s">
+      <c r="H16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>34</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="2">
         <v>34</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="6" t="s">
+      <c r="H17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="2">
         <v>11</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="2">
         <v>12</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3" t="s">
+      <c r="H18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="3" t="s">
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1588,7 +1058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1608,7 +1078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1628,7 +1098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1648,7 +1118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1668,7 +1138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1688,7 +1158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -1708,7 +1178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -1728,222 +1198,383 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="2">
         <v>32</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="6" t="s">
+      <c r="C31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="2">
         <v>32</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I31" s="6" t="s">
+      <c r="H31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="2">
         <v>250</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="C32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="2">
         <v>251</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3" t="s">
+      <c r="H32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="2">
         <v>8</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="C33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="2">
         <v>8</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="6" t="s">
+      <c r="H33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="2">
         <v>219</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="C34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="2">
         <v>219</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I34" s="3" t="s">
+      <c r="H34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="2">
         <v>225</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="C35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="2">
         <v>225</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3" t="s">
+      <c r="H35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="2">
         <v>190</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="C36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="2">
         <v>190</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I36" s="3" t="s">
+      <c r="H36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="2">
         <v>25</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="C37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="2">
         <v>25</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I37" s="6" t="s">
+      <c r="H37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I37" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="2">
         <v>245</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="C38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="2">
         <v>245</v>
       </c>
-      <c r="H38" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I38" s="3" t="s">
+      <c r="H38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>42</v>
       </c>
     </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="E43" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="E44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="E45" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="E46" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="E47" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="E48" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="E49" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="E50" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="E52" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="E53" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="24">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="F22:H22"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E43:G43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Benchmarks/Benchmark/BinarySearchVsLinearSearch/AnalyzeStructureOfSequentialGuid.xlsx
+++ b/Benchmarks/Benchmark/BinarySearchVsLinearSearch/AnalyzeStructureOfSequentialGuid.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonpham/Projects/Pluralsight/AlgorithmsAndDataStructures/AlgorithmsAndDataStructures_Part2.Explaining/AlgorithmsAndDataStructures_Part2.Benchmarks/BinarySearchVsLinearSearch/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sonpham/Projects/SonPhamProjects/MrpDanu/DDD.MrpDanu/Benchmarks/Benchmark/BinarySearchVsLinearSearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1855CE3-CF8D-7A49-BD92-A41EEF29398A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB221A8-3EAE-C44D-9A60-07887F17CAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -256,7 +256,7 @@
     <t>[9]: {050b32f7-3498-4df8-ac17-08dbe26c72ec}</t>
   </si>
   <si>
-    <t>The "eb" will place first, and then "ec", so we need to compare from the last item to the first item</t>
+    <t>The "eb" will place first, and then "ec", so we need to compare the last component and then the previous component, … please check SqlGuid, CompareTo method for more details.</t>
   </si>
 </sst>
 </file>
@@ -325,10 +325,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -609,7 +609,7 @@
   <dimension ref="A2:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="E45" sqref="E45:G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -624,19 +624,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1021,19 +1021,19 @@
       <c r="I20" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
       <c r="I22" s="1" t="s">
         <v>36</v>
       </c>
@@ -1407,141 +1407,141 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="E43" s="6" t="s">
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="E43" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
       <c r="E44" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="E45" s="6" t="s">
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="E45" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="E46" s="6" t="s">
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="E46" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="E47" s="6" t="s">
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="E47" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="E48" s="6" t="s">
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="E48" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
       <c r="E49" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="E50" s="6" t="s">
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="E50" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="E52" s="6" t="s">
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="E52" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="E53" s="6" t="s">
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="E53" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
@@ -1550,6 +1550,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="E50:G50"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="A22:C22"/>
@@ -1566,14 +1574,6 @@
     <mergeCell ref="A53:C53"/>
     <mergeCell ref="E45:G45"/>
     <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E43:G43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
